--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Custodio</t>
   </si>
   <si>
-    <t>Valoracion Confidencialidad</t>
-  </si>
-  <si>
-    <t>Valoracion Integridad</t>
-  </si>
-  <si>
-    <t>Valoracion Disponibilidad</t>
+    <t>Confidencialidad</t>
+  </si>
+  <si>
+    <t>Integridad</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
   </si>
   <si>
     <t>Valor</t>
@@ -78,6 +81,48 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>unidad nueva</t>
+  </si>
+  <si>
+    <t>Nuevo MacroZ</t>
+  </si>
+  <si>
+    <t>Nuevo Proceso</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>kugk</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Nuevo Puesto</t>
+  </si>
+  <si>
+    <t>Valor A</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-04-25 21:23:50.000000</t>
   </si>
 </sst>
 </file>
@@ -443,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -451,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +517,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -491,7 +536,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -551,6 +596,72 @@
       </c>
       <c r="T6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Nuevo</t>
+    <t>NuevoB</t>
   </si>
   <si>
     <t>Valor</t>
@@ -98,10 +98,7 @@
     <t>Nuevo Proceso</t>
   </si>
   <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>kugk</t>
+    <t>ActivoA</t>
   </si>
   <si>
     <t>Software</t>
@@ -116,13 +113,13 @@
     <t>Nuevo Puesto</t>
   </si>
   <si>
-    <t>Valor A</t>
+    <t>Valor B</t>
   </si>
   <si>
     <t>Registrado</t>
   </si>
   <si>
-    <t>2023-04-25 21:23:50.000000</t>
+    <t>2023-04-26 10:49:27.000000</t>
   </si>
 </sst>
 </file>
@@ -488,15 +485,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection activeCell="A6" sqref="A6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +514,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -536,7 +533,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -597,13 +594,18 @@
       <c r="T6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:26">
       <c r="A7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -624,44 +626,46 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
-      <c r="Q7"/>
+      <c r="Q7">
+        <v>3</v>
+      </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
       </c>
       <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
         <v>34</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Integridad</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
-    <t>NuevoB</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -81,45 +75,6 @@
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>Financiera Efectiva</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>unidad nueva</t>
-  </si>
-  <si>
-    <t>Nuevo MacroZ</t>
-  </si>
-  <si>
-    <t>Nuevo Proceso</t>
-  </si>
-  <si>
-    <t>ActivoA</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Nuevo Puesto</t>
-  </si>
-  <si>
-    <t>Valor B</t>
-  </si>
-  <si>
-    <t>Registrado</t>
-  </si>
-  <si>
-    <t>2023-04-26 10:49:27.000000</t>
   </si>
 </sst>
 </file>
@@ -485,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -591,82 +546,13 @@
       <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -62,7 +62,13 @@
     <t>Confidencialidad</t>
   </si>
   <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
     <t>Integridad</t>
+  </si>
+  <si>
+    <t>Automatizacion</t>
   </si>
   <si>
     <t>Valor</t>
@@ -546,8 +552,12 @@
       <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Integridad</t>
   </si>
   <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -75,6 +78,51 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>unidad nueva</t>
+  </si>
+  <si>
+    <t>Nuevo MacroZ</t>
+  </si>
+  <si>
+    <t>Nuevo Proceso</t>
+  </si>
+  <si>
+    <t>jygy</t>
+  </si>
+  <si>
+    <t>kugk</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Nuevo Puesto</t>
+  </si>
+  <si>
+    <t>Valor C</t>
+  </si>
+  <si>
+    <t>jkbkj</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:43:44.000000</t>
   </si>
 </sst>
 </file>
@@ -440,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -546,13 +594,75 @@
       <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -62,10 +62,13 @@
     <t>Confidencialidad</t>
   </si>
   <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
     <t>Integridad</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
+    <t>Automatizacion</t>
   </si>
   <si>
     <t>Valor</t>
@@ -78,51 +81,6 @@
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>Financiera Efectiva</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>unidad nueva</t>
-  </si>
-  <si>
-    <t>Nuevo MacroZ</t>
-  </si>
-  <si>
-    <t>Nuevo Proceso</t>
-  </si>
-  <si>
-    <t>jygy</t>
-  </si>
-  <si>
-    <t>kugk</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Nuevo Puesto</t>
-  </si>
-  <si>
-    <t>Valor C</t>
-  </si>
-  <si>
-    <t>jkbkj</t>
-  </si>
-  <si>
-    <t>Registrado</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:43:44.000000</t>
   </si>
 </sst>
 </file>
@@ -488,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -597,72 +555,14 @@
       <c r="T6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -81,6 +81,60 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>unidad nueva</t>
+  </si>
+  <si>
+    <t>Nuevo MacroZ</t>
+  </si>
+  <si>
+    <t>Nuevo Proceso</t>
+  </si>
+  <si>
+    <t>ActivoA</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Nuevo Puesto</t>
+  </si>
+  <si>
+    <t>Valor A</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:50:02.000000</t>
+  </si>
+  <si>
+    <t>Observado</t>
+  </si>
+  <si>
+    <t>2023-04-27 19:52:47.000000</t>
+  </si>
+  <si>
+    <t>2023-04-27 19:53:56.000000</t>
+  </si>
+  <si>
+    <t>Borrador</t>
+  </si>
+  <si>
+    <t>2023-05-02 15:16:33.000000</t>
   </si>
 </sst>
 </file>
@@ -446,7 +500,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -564,6 +618,266 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
+    <row r="7" spans="1:26">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -62,15 +62,12 @@
     <t>Confidencialidad</t>
   </si>
   <si>
+    <t>Integridad</t>
+  </si>
+  <si>
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Integridad</t>
-  </si>
-  <si>
-    <t>Automatizacion</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -83,58 +80,91 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Financiera Efectiva</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>unidad nueva</t>
-  </si>
-  <si>
-    <t>Nuevo MacroZ</t>
-  </si>
-  <si>
-    <t>Nuevo Proceso</t>
-  </si>
-  <si>
-    <t>ActivoA</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Nuevo Puesto</t>
-  </si>
-  <si>
-    <t>Valor A</t>
+    <t>Efectiva SA</t>
+  </si>
+  <si>
+    <t>AreaA</t>
+  </si>
+  <si>
+    <t>UnidadA</t>
+  </si>
+  <si>
+    <t>MacroA</t>
+  </si>
+  <si>
+    <t>ProceA</t>
+  </si>
+  <si>
+    <t>ACTIVOA</t>
+  </si>
+  <si>
+    <t>TIPOACTIVOA</t>
+  </si>
+  <si>
+    <t>ACTCATA</t>
+  </si>
+  <si>
+    <t>AV. JAVIER PRADO 1333</t>
+  </si>
+  <si>
+    <t>PosicionA</t>
+  </si>
+  <si>
+    <t>PosicionB</t>
+  </si>
+  <si>
+    <t>NO SIGNIFICATIVO</t>
   </si>
   <si>
     <t>Aprobado</t>
   </si>
   <si>
-    <t>2023-04-26 22:50:02.000000</t>
-  </si>
-  <si>
-    <t>Observado</t>
-  </si>
-  <si>
-    <t>2023-04-27 19:52:47.000000</t>
-  </si>
-  <si>
-    <t>2023-04-27 19:53:56.000000</t>
-  </si>
-  <si>
-    <t>Borrador</t>
-  </si>
-  <si>
-    <t>2023-05-02 15:16:33.000000</t>
+    <t>2023-05-09 18:11:31.000000</t>
+  </si>
+  <si>
+    <t>ActivoB</t>
+  </si>
+  <si>
+    <t>2023-05-09 18:11:56.000000</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-05-10 09:58:30.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:43:16.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:45:11.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:02:29.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:02:56.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:15:21.000000</t>
+  </si>
+  <si>
+    <t>Por Actualizar</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:18:35.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:19:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:27:04.000000</t>
+  </si>
+  <si>
+    <t>2023-05-10 11:32:49.000000</t>
   </si>
 </sst>
 </file>
@@ -500,7 +530,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -609,9 +639,7 @@
       <c r="T6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -620,262 +648,808 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>8</v>
+      <c r="Q7" t="s">
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>8</v>
+      <c r="Q8" t="s">
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
       <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>8</v>
+      <c r="Q9" t="s">
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>8</v>
+      <c r="Q10" t="s">
+        <v>32</v>
       </c>
       <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="S10" t="s">
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="T10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" t="s">
-        <v>39</v>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -165,6 +165,93 @@
   </si>
   <si>
     <t>2023-05-10 11:32:49.000000</t>
+  </si>
+  <si>
+    <t>ACTIVOZZ</t>
+  </si>
+  <si>
+    <t>2023-05-11 02:07:29.000000</t>
+  </si>
+  <si>
+    <t>ActivoZ</t>
+  </si>
+  <si>
+    <t>2023-05-11 11:45:31.000000</t>
+  </si>
+  <si>
+    <t>ACTIVOH</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:19:40.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:50:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 19:06:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 19:14:53.000000</t>
+  </si>
+  <si>
+    <t>2023-05-12 02:44:38.000000</t>
+  </si>
+  <si>
+    <t>ActivoC</t>
+  </si>
+  <si>
+    <t>ActivoA</t>
+  </si>
+  <si>
+    <t>ActivoJ</t>
+  </si>
+  <si>
+    <t>Activok</t>
+  </si>
+  <si>
+    <t>ACTIVOM</t>
+  </si>
+  <si>
+    <t>Activon</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:11:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:11:45.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 19:13:23.000000</t>
+  </si>
+  <si>
+    <t>ACTIVO ZZZZ</t>
+  </si>
+  <si>
+    <t>EXTREMO</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:52:29.000000</t>
+  </si>
+  <si>
+    <t>Observado</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:53:50.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:55:05.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:55:52.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:56:53.000000</t>
+  </si>
+  <si>
+    <t>2023-05-11 18:57:29.000000</t>
   </si>
 </sst>
 </file>
@@ -530,7 +617,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -1452,6 +1539,1618 @@
         <v>49</v>
       </c>
     </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>66</v>
+      </c>
+      <c r="R37" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>66</v>
+      </c>
+      <c r="R38" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s">
+        <v>70</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s">
+        <v>70</v>
+      </c>
+      <c r="S40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s">
+        <v>70</v>
+      </c>
+      <c r="S41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s">
+        <v>70</v>
+      </c>
+      <c r="S42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s">
+        <v>70</v>
+      </c>
+      <c r="S43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s">
+        <v>70</v>
+      </c>
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s">
+        <v>70</v>
+      </c>
+      <c r="S45" t="s">
+        <v>33</v>
+      </c>
+      <c r="T45" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -86,10 +86,10 @@
     <t>Efectiva SA</t>
   </si>
   <si>
-    <t>AreaA</t>
-  </si>
-  <si>
-    <t>UnidadA</t>
+    <t>RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>PLANEAMIENTO</t>
   </si>
   <si>
     <t>MacroA</t>
@@ -119,7 +119,7 @@
     <t>PosicionB</t>
   </si>
   <si>
-    <t>NO SIGNIFICATIVO</t>
+    <t>NO SIGNIFICATIVOO</t>
   </si>
   <si>
     <t>CLASIFICAICONA</t>
@@ -129,6 +129,57 @@
   </si>
   <si>
     <t>2023-05-17 01:55:41.000000</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-05-17 02:00:45.000000</t>
+  </si>
+  <si>
+    <t>ActivoC</t>
+  </si>
+  <si>
+    <t>GERENTE DE RHH</t>
+  </si>
+  <si>
+    <t>Borrador</t>
+  </si>
+  <si>
+    <t>2023-05-18 22:57:11.000000</t>
+  </si>
+  <si>
+    <t>ActivoD</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:11:24.000000</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:12:02.000000</t>
+  </si>
+  <si>
+    <t>ACTIVOE</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:14:13.000000</t>
+  </si>
+  <si>
+    <t>ACTIVOF</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:18:12.000000</t>
+  </si>
+  <si>
+    <t>ActivoB</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:22:17.000000</t>
+  </si>
+  <si>
+    <t>2023-05-18 23:23:00.000000</t>
   </si>
 </sst>
 </file>
@@ -494,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -677,6 +728,526 @@
         <v>37</v>
       </c>
     </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>
